--- a/database/capsules_spreadsheets/Spring-2022-Capsules-testing.xlsx
+++ b/database/capsules_spreadsheets/Spring-2022-Capsules-testing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\camer\docfilms-github\site\database\capsules_spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{812D821F-9CF3-42FA-8636-25390E955E1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFFF29DA-C0D7-417F-B509-741A0CF0A2E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -118,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="366">
   <si>
     <t>title</t>
   </si>
@@ -178,9 +178,6 @@
   </si>
   <si>
     <t>programmer</t>
-  </si>
-  <si>
-    <t>slot</t>
   </si>
   <si>
     <t>Example: 1</t>
@@ -2014,10 +2011,10 @@
   <dimension ref="A1:U84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="U4" sqref="U4"/>
+      <selection pane="bottomRight" activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2101,41 +2098,39 @@
       <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="U1" s="1"/>
     </row>
     <row r="2" spans="1:21" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="5">
         <f t="shared" ref="B2:B4" si="0">LEN(H2)</f>
         <v>495</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="F2" s="9" t="s">
         <v>24</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>25</v>
       </c>
       <c r="G2" s="10">
         <v>1990</v>
       </c>
       <c r="H2" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="J2" s="13" t="s">
         <v>27</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>28</v>
       </c>
       <c r="K2" s="14">
         <v>42457</v>
@@ -2155,35 +2150,35 @@
     </row>
     <row r="3" spans="1:21" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" s="5">
         <f t="shared" si="0"/>
         <v>477</v>
       </c>
       <c r="C3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>23</v>
-      </c>
       <c r="E3" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="18" t="s">
         <v>30</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>31</v>
       </c>
       <c r="G3" s="19">
         <v>1934</v>
       </c>
       <c r="H3" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="J3" s="18" t="s">
         <v>33</v>
-      </c>
-      <c r="J3" s="18" t="s">
-        <v>34</v>
       </c>
       <c r="K3" s="14">
         <v>42458</v>
@@ -2203,35 +2198,35 @@
     </row>
     <row r="4" spans="1:21" ht="145.19999999999999" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4" s="5">
         <f t="shared" si="0"/>
         <v>505</v>
       </c>
       <c r="C4" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="E4" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="22" t="s">
         <v>37</v>
-      </c>
-      <c r="E4" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="22" t="s">
-        <v>38</v>
       </c>
       <c r="G4" s="26">
         <v>1968</v>
       </c>
       <c r="H4" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="I4" s="27" t="s">
+      <c r="J4" s="24" t="s">
         <v>40</v>
-      </c>
-      <c r="J4" s="24" t="s">
-        <v>41</v>
       </c>
       <c r="K4" s="28">
         <v>44648</v>
@@ -2245,36 +2240,36 @@
       <c r="P4" s="30"/>
       <c r="Q4" s="25"/>
       <c r="R4" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="S4" s="25" t="s">
         <v>42</v>
-      </c>
-      <c r="S4" s="25" t="s">
-        <v>43</v>
       </c>
       <c r="T4" s="25"/>
       <c r="U4" s="25"/>
     </row>
     <row r="5" spans="1:21" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="23"/>
       <c r="D5" s="24"/>
       <c r="E5" s="25"/>
       <c r="F5" s="22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G5" s="26">
         <v>1981</v>
       </c>
       <c r="H5" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="I5" s="27" t="s">
+      <c r="J5" s="24" t="s">
         <v>48</v>
-      </c>
-      <c r="J5" s="24" t="s">
-        <v>49</v>
       </c>
       <c r="K5" s="28">
         <v>44648</v>
@@ -2288,40 +2283,40 @@
       <c r="P5" s="30"/>
       <c r="Q5" s="25"/>
       <c r="R5" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="S5" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="S5" s="25" t="s">
+      <c r="T5" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="T5" s="25" t="s">
+      <c r="U5" s="25" t="s">
         <v>44</v>
-      </c>
-      <c r="U5" s="25" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="23"/>
       <c r="D6" s="24"/>
       <c r="E6" s="25"/>
       <c r="F6" s="22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G6" s="26">
         <v>1995</v>
       </c>
       <c r="H6" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="I6" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="I6" s="27" t="s">
-        <v>52</v>
-      </c>
       <c r="J6" s="24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K6" s="28">
         <v>44648</v>
@@ -2335,49 +2330,49 @@
       <c r="P6" s="30"/>
       <c r="Q6" s="25"/>
       <c r="R6" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="S6" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="S6" s="25" t="s">
+      <c r="T6" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="T6" s="25" t="s">
+      <c r="U6" s="25" t="s">
         <v>44</v>
-      </c>
-      <c r="U6" s="25" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="132" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B7" s="5">
         <f t="shared" ref="B7:B34" si="1">LEN(H7)</f>
         <v>442</v>
       </c>
       <c r="C7" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="E7" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="22" t="s">
         <v>55</v>
-      </c>
-      <c r="E7" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="22" t="s">
-        <v>56</v>
       </c>
       <c r="G7" s="26">
         <v>1992</v>
       </c>
       <c r="H7" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="I7" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="I7" s="26" t="s">
-        <v>58</v>
-      </c>
       <c r="J7" s="24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K7" s="28">
         <v>44649</v>
@@ -2391,18 +2386,18 @@
       <c r="P7" s="34"/>
       <c r="Q7" s="21"/>
       <c r="S7" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="T7" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="T7" s="25" t="s">
+      <c r="U7" s="25" t="s">
         <v>60</v>
-      </c>
-      <c r="U7" s="25" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="132" x14ac:dyDescent="0.25">
       <c r="A8" s="24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B8" s="5">
         <f t="shared" si="1"/>
@@ -2410,25 +2405,25 @@
       </c>
       <c r="C8" s="23"/>
       <c r="D8" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F8" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G8" s="26">
         <v>1964</v>
       </c>
       <c r="H8" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="I8" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="I8" s="26" t="s">
-        <v>65</v>
-      </c>
       <c r="J8" s="24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K8" s="28">
         <v>44651</v>
@@ -2443,46 +2438,46 @@
       <c r="Q8" s="21"/>
       <c r="R8" s="21"/>
       <c r="S8" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="T8" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="T8" s="25" t="s">
+      <c r="U8" s="25" t="s">
         <v>67</v>
-      </c>
-      <c r="U8" s="25" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="132" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B9" s="5">
         <f t="shared" si="1"/>
         <v>447</v>
       </c>
       <c r="C9" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="22" t="s">
         <v>70</v>
-      </c>
-      <c r="D9" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="E9" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="22" t="s">
-        <v>71</v>
       </c>
       <c r="G9" s="26">
         <v>1982</v>
       </c>
       <c r="H9" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="I9" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="I9" s="26" t="s">
-        <v>73</v>
-      </c>
       <c r="J9" s="24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K9" s="28">
         <v>44651</v>
@@ -2497,46 +2492,46 @@
       <c r="Q9" s="36"/>
       <c r="R9" s="36"/>
       <c r="S9" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="T9" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="T9" s="25" t="s">
-        <v>75</v>
-      </c>
       <c r="U9" s="25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="132" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B10" s="5">
         <f t="shared" si="1"/>
         <v>448</v>
       </c>
       <c r="C10" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="24" t="s">
         <v>77</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="E10" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" s="24" t="s">
-        <v>78</v>
       </c>
       <c r="G10" s="26">
         <v>2000</v>
       </c>
       <c r="H10" s="37" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I10" s="26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J10" s="24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K10" s="28">
         <v>44652</v>
@@ -2551,18 +2546,18 @@
       <c r="Q10" s="21"/>
       <c r="R10" s="21"/>
       <c r="S10" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="T10" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="T10" s="25" t="s">
+      <c r="U10" s="25" t="s">
         <v>81</v>
-      </c>
-      <c r="U10" s="25" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B11" s="5">
         <f t="shared" si="1"/>
@@ -2572,19 +2567,19 @@
       <c r="D11" s="24"/>
       <c r="E11" s="21"/>
       <c r="F11" s="24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G11" s="26">
         <v>2021</v>
       </c>
       <c r="H11" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="I11" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="I11" s="26" t="s">
-        <v>86</v>
-      </c>
       <c r="J11" s="24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K11" s="28">
         <v>44653</v>
@@ -2599,46 +2594,46 @@
       <c r="Q11" s="21"/>
       <c r="R11" s="21"/>
       <c r="S11" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="T11" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="T11" s="25" t="s">
+      <c r="U11" s="25" t="s">
         <v>88</v>
-      </c>
-      <c r="U11" s="25" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="132" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B12" s="5">
         <f t="shared" si="1"/>
         <v>448</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F12" s="24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G12" s="22">
         <v>2018</v>
       </c>
       <c r="H12" s="38" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I12" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J12" s="24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K12" s="28">
         <v>44655</v>
@@ -2652,49 +2647,49 @@
       <c r="P12" s="34"/>
       <c r="Q12" s="25"/>
       <c r="R12" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S12" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="T12" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="T12" s="25" t="s">
+      <c r="U12" s="25" t="s">
         <v>44</v>
-      </c>
-      <c r="U12" s="25" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="132" x14ac:dyDescent="0.25">
       <c r="A13" s="39" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B13" s="40">
         <f t="shared" si="1"/>
         <v>449</v>
       </c>
       <c r="C13" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="D13" s="42" t="s">
-        <v>55</v>
-      </c>
       <c r="E13" s="43" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F13" s="44" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G13" s="45">
         <v>1992</v>
       </c>
       <c r="H13" s="46" t="s">
+        <v>95</v>
+      </c>
+      <c r="I13" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="I13" s="47" t="s">
-        <v>97</v>
-      </c>
       <c r="J13" s="42" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K13" s="48">
         <v>44656</v>
@@ -2709,18 +2704,18 @@
       <c r="Q13" s="21"/>
       <c r="R13" s="21"/>
       <c r="S13" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="T13" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="T13" s="25" t="s">
+      <c r="U13" s="25" t="s">
         <v>60</v>
-      </c>
-      <c r="U13" s="25" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A14" s="24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B14" s="5">
         <f t="shared" si="1"/>
@@ -2728,25 +2723,25 @@
       </c>
       <c r="C14" s="23"/>
       <c r="D14" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E14" s="25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F14" s="24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G14" s="26">
         <v>1997</v>
       </c>
       <c r="H14" s="50" t="s">
+        <v>99</v>
+      </c>
+      <c r="I14" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="I14" s="26" t="s">
-        <v>101</v>
-      </c>
       <c r="J14" s="24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K14" s="28">
         <v>44658</v>
@@ -2761,42 +2756,42 @@
       <c r="Q14" s="21"/>
       <c r="R14" s="21"/>
       <c r="S14" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="T14" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="T14" s="25" t="s">
+      <c r="U14" s="25" t="s">
         <v>67</v>
-      </c>
-      <c r="U14" s="25" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="132" x14ac:dyDescent="0.25">
       <c r="A15" s="24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B15" s="5">
         <f t="shared" si="1"/>
         <v>447</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D15" s="24"/>
       <c r="E15" s="21"/>
       <c r="F15" s="24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G15" s="26">
         <v>1982</v>
       </c>
       <c r="H15" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="I15" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="I15" s="26" t="s">
-        <v>105</v>
-      </c>
       <c r="J15" s="24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K15" s="28">
         <v>44658</v>
@@ -2811,18 +2806,18 @@
       <c r="Q15" s="21"/>
       <c r="R15" s="21"/>
       <c r="S15" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="T15" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="T15" s="25" t="s">
-        <v>75</v>
-      </c>
       <c r="U15" s="25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="132" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B16" s="5">
         <f t="shared" si="1"/>
@@ -2830,25 +2825,25 @@
       </c>
       <c r="C16" s="23"/>
       <c r="D16" s="24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F16" s="22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G16" s="26">
         <v>1994</v>
       </c>
       <c r="H16" s="54" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I16" s="26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J16" s="24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K16" s="28">
         <v>44659</v>
@@ -2863,46 +2858,46 @@
       <c r="Q16" s="36"/>
       <c r="R16" s="36"/>
       <c r="S16" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="T16" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="T16" s="25" t="s">
+      <c r="U16" s="25" t="s">
         <v>81</v>
-      </c>
-      <c r="U16" s="25" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="132" x14ac:dyDescent="0.25">
       <c r="A17" s="24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B17" s="5">
         <f t="shared" si="1"/>
         <v>449</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E17" s="25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F17" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G17" s="26">
         <v>2021</v>
       </c>
       <c r="H17" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="I17" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="I17" s="26" t="s">
-        <v>111</v>
-      </c>
       <c r="J17" s="24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K17" s="28">
         <v>44660</v>
@@ -2917,46 +2912,46 @@
       <c r="Q17" s="21"/>
       <c r="R17" s="21"/>
       <c r="S17" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="T17" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="T17" s="25" t="s">
+      <c r="U17" s="25" t="s">
         <v>88</v>
-      </c>
-      <c r="U17" s="25" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:21" ht="132" x14ac:dyDescent="0.25">
       <c r="A18" s="24" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B18" s="5">
         <f t="shared" si="1"/>
         <v>456</v>
       </c>
       <c r="C18" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="24" t="s">
         <v>113</v>
-      </c>
-      <c r="D18" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="E18" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="24" t="s">
-        <v>114</v>
       </c>
       <c r="G18" s="26">
         <v>1985</v>
       </c>
       <c r="H18" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="I18" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="I18" s="26" t="s">
-        <v>116</v>
-      </c>
       <c r="J18" s="24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K18" s="28">
         <v>44661</v>
@@ -2971,46 +2966,46 @@
       <c r="Q18" s="21"/>
       <c r="R18" s="21"/>
       <c r="S18" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="T18" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="T18" s="25" t="s">
+      <c r="U18" s="25" t="s">
         <v>118</v>
-      </c>
-      <c r="U18" s="25" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="132" x14ac:dyDescent="0.25">
       <c r="A19" s="24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B19" s="5">
         <f t="shared" si="1"/>
         <v>460</v>
       </c>
       <c r="C19" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="D19" s="24" t="s">
-        <v>55</v>
-      </c>
       <c r="E19" s="25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F19" s="24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G19" s="26">
         <v>1992</v>
       </c>
       <c r="H19" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="I19" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="I19" s="26" t="s">
-        <v>123</v>
-      </c>
       <c r="J19" s="24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K19" s="28">
         <v>44663</v>
@@ -3025,18 +3020,18 @@
       <c r="Q19" s="21"/>
       <c r="R19" s="21"/>
       <c r="S19" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="T19" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="T19" s="25" t="s">
+      <c r="U19" s="25" t="s">
         <v>60</v>
-      </c>
-      <c r="U19" s="25" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B20" s="5">
         <f t="shared" si="1"/>
@@ -3044,25 +3039,25 @@
       </c>
       <c r="C20" s="21"/>
       <c r="D20" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E20" s="25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F20" s="22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G20" s="26">
         <v>1978</v>
       </c>
       <c r="H20" s="54" t="s">
+        <v>125</v>
+      </c>
+      <c r="I20" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="I20" s="26" t="s">
-        <v>127</v>
-      </c>
       <c r="J20" s="24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K20" s="28">
         <v>44664</v>
@@ -3076,21 +3071,21 @@
       <c r="P20" s="33"/>
       <c r="Q20" s="21"/>
       <c r="R20" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="S20" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="S20" s="25" t="s">
+      <c r="T20" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="T20" s="25" t="s">
+      <c r="U20" s="25" t="s">
         <v>130</v>
-      </c>
-      <c r="U20" s="25" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:21" ht="132" x14ac:dyDescent="0.25">
       <c r="A21" s="24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B21" s="5">
         <f t="shared" si="1"/>
@@ -3098,25 +3093,25 @@
       </c>
       <c r="C21" s="21"/>
       <c r="D21" s="24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E21" s="25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F21" s="24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G21" s="26">
         <v>1969</v>
       </c>
       <c r="H21" s="54" t="s">
+        <v>133</v>
+      </c>
+      <c r="I21" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="I21" s="26" t="s">
-        <v>135</v>
-      </c>
       <c r="J21" s="24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K21" s="28">
         <v>44665</v>
@@ -3131,46 +3126,46 @@
       <c r="Q21" s="21"/>
       <c r="R21" s="21"/>
       <c r="S21" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="T21" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="T21" s="25" t="s">
+      <c r="U21" s="25" t="s">
         <v>67</v>
-      </c>
-      <c r="U21" s="25" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:21" ht="132" x14ac:dyDescent="0.25">
       <c r="A22" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B22" s="5">
         <f t="shared" si="1"/>
         <v>441</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D22" s="32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E22" s="25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F22" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G22" s="26">
         <v>1994</v>
       </c>
       <c r="H22" s="57" t="s">
+        <v>137</v>
+      </c>
+      <c r="I22" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="J22" s="24" t="s">
         <v>138</v>
-      </c>
-      <c r="I22" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="J22" s="24" t="s">
-        <v>139</v>
       </c>
       <c r="K22" s="28">
         <v>44665</v>
@@ -3185,46 +3180,46 @@
       <c r="Q22" s="21"/>
       <c r="R22" s="21"/>
       <c r="S22" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="T22" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="T22" s="25" t="s">
-        <v>75</v>
-      </c>
       <c r="U22" s="25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="132" x14ac:dyDescent="0.25">
       <c r="A23" s="24" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B23" s="5">
         <f t="shared" si="1"/>
         <v>452</v>
       </c>
       <c r="C23" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" s="24" t="s">
         <v>77</v>
-      </c>
-      <c r="D23" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="E23" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="F23" s="24" t="s">
-        <v>78</v>
       </c>
       <c r="G23" s="26">
         <v>1997</v>
       </c>
       <c r="H23" s="54" t="s">
+        <v>140</v>
+      </c>
+      <c r="I23" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="I23" s="26" t="s">
-        <v>142</v>
-      </c>
       <c r="J23" s="24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K23" s="28">
         <v>44666</v>
@@ -3239,46 +3234,46 @@
       <c r="Q23" s="21"/>
       <c r="R23" s="21"/>
       <c r="S23" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="T23" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="T23" s="25" t="s">
+      <c r="U23" s="25" t="s">
         <v>81</v>
-      </c>
-      <c r="U23" s="25" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="132" x14ac:dyDescent="0.25">
       <c r="A24" s="22" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B24" s="5">
         <f t="shared" si="1"/>
         <v>456</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E24" s="25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F24" s="24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G24" s="26">
         <v>2021</v>
       </c>
       <c r="H24" s="54" t="s">
+        <v>144</v>
+      </c>
+      <c r="I24" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="I24" s="26" t="s">
-        <v>146</v>
-      </c>
       <c r="J24" s="24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K24" s="28">
         <v>44667</v>
@@ -3293,18 +3288,18 @@
       <c r="Q24" s="21"/>
       <c r="R24" s="21"/>
       <c r="S24" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="T24" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="T24" s="25" t="s">
+      <c r="U24" s="25" t="s">
         <v>88</v>
-      </c>
-      <c r="U24" s="25" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:21" ht="132" x14ac:dyDescent="0.25">
       <c r="A25" s="24" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B25" s="5">
         <f t="shared" si="1"/>
@@ -3312,25 +3307,25 @@
       </c>
       <c r="C25" s="23"/>
       <c r="D25" s="59" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E25" s="25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F25" s="60" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G25" s="26">
         <v>2009</v>
       </c>
       <c r="H25" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="I25" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="I25" s="26" t="s">
-        <v>150</v>
-      </c>
       <c r="J25" s="24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K25" s="28">
         <v>44668</v>
@@ -3345,46 +3340,46 @@
       <c r="Q25" s="21"/>
       <c r="R25" s="21"/>
       <c r="S25" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="T25" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="T25" s="25" t="s">
+      <c r="U25" s="25" t="s">
         <v>118</v>
-      </c>
-      <c r="U25" s="25" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="26" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A26" s="24" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B26" s="5">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="C26" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D26" s="24" t="s">
-        <v>37</v>
-      </c>
       <c r="E26" s="25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F26" s="24" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G26" s="26">
         <v>1982</v>
       </c>
       <c r="H26" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="I26" s="26" t="s">
         <v>153</v>
       </c>
-      <c r="I26" s="26" t="s">
-        <v>154</v>
-      </c>
       <c r="J26" s="24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K26" s="28">
         <v>44669</v>
@@ -3398,49 +3393,49 @@
       <c r="P26" s="34"/>
       <c r="Q26" s="25"/>
       <c r="R26" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S26" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="T26" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="T26" s="25" t="s">
+      <c r="U26" s="25" t="s">
         <v>44</v>
-      </c>
-      <c r="U26" s="25" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:21" ht="132" x14ac:dyDescent="0.25">
       <c r="A27" s="24" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B27" s="5">
         <f t="shared" si="1"/>
         <v>443</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D27" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E27" s="25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F27" s="24" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G27" s="26">
         <v>1992</v>
       </c>
       <c r="H27" s="54" t="s">
+        <v>156</v>
+      </c>
+      <c r="I27" s="26" t="s">
         <v>157</v>
       </c>
-      <c r="I27" s="26" t="s">
-        <v>158</v>
-      </c>
       <c r="J27" s="24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K27" s="28">
         <v>44670</v>
@@ -3455,46 +3450,46 @@
       <c r="Q27" s="21"/>
       <c r="R27" s="21"/>
       <c r="S27" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="T27" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="T27" s="25" t="s">
+      <c r="U27" s="25" t="s">
         <v>60</v>
-      </c>
-      <c r="U27" s="25" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:21" ht="132" x14ac:dyDescent="0.25">
       <c r="A28" s="61" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B28" s="5">
         <f t="shared" si="1"/>
         <v>441</v>
       </c>
       <c r="C28" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="D28" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="E28" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F28" s="24" t="s">
         <v>160</v>
-      </c>
-      <c r="D28" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="E28" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="F28" s="24" t="s">
-        <v>161</v>
       </c>
       <c r="G28" s="26">
         <v>1994</v>
       </c>
       <c r="H28" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="I28" s="26" t="s">
         <v>162</v>
       </c>
-      <c r="I28" s="26" t="s">
-        <v>163</v>
-      </c>
       <c r="J28" s="24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K28" s="28">
         <v>44671</v>
@@ -3509,18 +3504,18 @@
       <c r="Q28" s="36"/>
       <c r="R28" s="36"/>
       <c r="S28" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="T28" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="T28" s="25" t="s">
+      <c r="U28" s="25" t="s">
         <v>130</v>
-      </c>
-      <c r="U28" s="25" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="29" spans="1:21" ht="132" x14ac:dyDescent="0.25">
       <c r="A29" s="24" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B29" s="5">
         <f t="shared" si="1"/>
@@ -3528,25 +3523,25 @@
       </c>
       <c r="C29" s="23"/>
       <c r="D29" s="24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E29" s="25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F29" s="22" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G29" s="26">
         <v>2014</v>
       </c>
       <c r="H29" s="54" t="s">
+        <v>165</v>
+      </c>
+      <c r="I29" s="26" t="s">
         <v>166</v>
       </c>
-      <c r="I29" s="26" t="s">
-        <v>167</v>
-      </c>
       <c r="J29" s="24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K29" s="28">
         <v>44672</v>
@@ -3561,42 +3556,42 @@
       <c r="Q29" s="25"/>
       <c r="R29" s="25"/>
       <c r="S29" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="T29" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="T29" s="25" t="s">
+      <c r="U29" s="25" t="s">
         <v>67</v>
-      </c>
-      <c r="U29" s="25" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:21" ht="132" x14ac:dyDescent="0.25">
       <c r="A30" s="24" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B30" s="5">
         <f t="shared" si="1"/>
         <v>443</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D30" s="24"/>
       <c r="E30" s="21"/>
       <c r="F30" s="24" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G30" s="26">
         <v>1996</v>
       </c>
       <c r="H30" s="54" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I30" s="26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J30" s="24" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K30" s="28">
         <v>44672</v>
@@ -3611,18 +3606,18 @@
       <c r="Q30" s="21"/>
       <c r="R30" s="21"/>
       <c r="S30" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="T30" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="T30" s="25" t="s">
-        <v>75</v>
-      </c>
       <c r="U30" s="25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:21" ht="132" x14ac:dyDescent="0.25">
       <c r="A31" s="24" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B31" s="5">
         <f t="shared" si="1"/>
@@ -3630,25 +3625,25 @@
       </c>
       <c r="C31" s="23"/>
       <c r="D31" s="24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E31" s="25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F31" s="24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G31" s="26">
         <v>2013</v>
       </c>
       <c r="H31" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="I31" s="26" t="s">
         <v>172</v>
       </c>
-      <c r="I31" s="26" t="s">
-        <v>173</v>
-      </c>
       <c r="J31" s="24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K31" s="28">
         <v>44673</v>
@@ -3663,18 +3658,18 @@
       <c r="Q31" s="21"/>
       <c r="R31" s="21"/>
       <c r="S31" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="T31" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="T31" s="25" t="s">
+      <c r="U31" s="25" t="s">
         <v>81</v>
-      </c>
-      <c r="U31" s="25" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="32" spans="1:21" ht="145.19999999999999" x14ac:dyDescent="0.25">
       <c r="A32" s="24" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B32" s="5">
         <f t="shared" si="1"/>
@@ -3684,19 +3679,19 @@
       <c r="D32" s="24"/>
       <c r="E32" s="21"/>
       <c r="F32" s="24" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G32" s="26">
         <v>2021</v>
       </c>
       <c r="H32" s="54" t="s">
+        <v>175</v>
+      </c>
+      <c r="I32" s="26" t="s">
         <v>176</v>
       </c>
-      <c r="I32" s="26" t="s">
-        <v>177</v>
-      </c>
       <c r="J32" s="24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K32" s="28">
         <v>44674</v>
@@ -3710,49 +3705,49 @@
       <c r="P32" s="30"/>
       <c r="Q32" s="25"/>
       <c r="R32" s="25" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="S32" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="T32" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="T32" s="25" t="s">
+      <c r="U32" s="25" t="s">
         <v>88</v>
-      </c>
-      <c r="U32" s="25" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="33" spans="1:21" ht="132" x14ac:dyDescent="0.25">
       <c r="A33" s="32" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B33" s="5">
         <f t="shared" si="1"/>
         <v>460</v>
       </c>
       <c r="C33" s="23" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D33" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E33" s="25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F33" s="60" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G33" s="26">
         <v>2013</v>
       </c>
       <c r="H33" s="54" t="s">
+        <v>180</v>
+      </c>
+      <c r="I33" s="26" t="s">
         <v>181</v>
       </c>
-      <c r="I33" s="26" t="s">
-        <v>182</v>
-      </c>
       <c r="J33" s="24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K33" s="28">
         <v>44675</v>
@@ -3767,46 +3762,46 @@
       <c r="Q33" s="21"/>
       <c r="R33" s="21"/>
       <c r="S33" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="T33" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="T33" s="25" t="s">
+      <c r="U33" s="25" t="s">
         <v>118</v>
-      </c>
-      <c r="U33" s="25" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="34" spans="1:21" ht="145.19999999999999" x14ac:dyDescent="0.25">
       <c r="A34" s="62" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B34" s="5">
         <f t="shared" si="1"/>
         <v>516</v>
       </c>
       <c r="C34" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D34" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D34" s="24" t="s">
-        <v>37</v>
-      </c>
       <c r="E34" s="25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F34" s="24" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G34" s="26">
         <v>1995</v>
       </c>
       <c r="H34" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="I34" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="I34" s="26" t="s">
-        <v>186</v>
-      </c>
       <c r="J34" s="24" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K34" s="28">
         <v>44676</v>
@@ -3820,40 +3815,40 @@
       <c r="P34" s="30"/>
       <c r="Q34" s="25"/>
       <c r="R34" s="25" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="S34" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="T34" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="T34" s="25" t="s">
+      <c r="U34" s="25" t="s">
         <v>44</v>
-      </c>
-      <c r="U34" s="25" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A35" s="62" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B35" s="5"/>
       <c r="C35" s="23"/>
       <c r="D35" s="24"/>
       <c r="E35" s="25"/>
       <c r="F35" s="38" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G35" s="26">
         <v>1991</v>
       </c>
       <c r="H35" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="I35" s="26" t="s">
         <v>190</v>
       </c>
-      <c r="I35" s="26" t="s">
-        <v>191</v>
-      </c>
       <c r="J35" s="24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K35" s="28">
         <v>44676</v>
@@ -3867,49 +3862,49 @@
       <c r="P35" s="30"/>
       <c r="Q35" s="25"/>
       <c r="R35" s="25" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="S35" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="T35" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="T35" s="25" t="s">
+      <c r="U35" s="25" t="s">
         <v>44</v>
-      </c>
-      <c r="U35" s="25" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:21" ht="132" x14ac:dyDescent="0.25">
       <c r="A36" s="63" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B36" s="5">
         <f t="shared" ref="B36:B43" si="2">LEN(H36)</f>
         <v>458</v>
       </c>
       <c r="C36" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D36" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E36" s="25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F36" s="24" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G36" s="26">
         <v>1992</v>
       </c>
       <c r="H36" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="I36" s="26" t="s">
         <v>194</v>
       </c>
-      <c r="I36" s="26" t="s">
-        <v>195</v>
-      </c>
       <c r="J36" s="24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K36" s="28">
         <v>44677</v>
@@ -3924,46 +3919,46 @@
       <c r="Q36" s="36"/>
       <c r="R36" s="36"/>
       <c r="S36" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="T36" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="T36" s="25" t="s">
+      <c r="U36" s="25" t="s">
         <v>60</v>
-      </c>
-      <c r="U36" s="25" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:21" ht="132" x14ac:dyDescent="0.25">
       <c r="A37" s="24" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B37" s="5">
         <f t="shared" si="2"/>
         <v>455</v>
       </c>
       <c r="C37" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="D37" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="E37" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F37" s="66" t="s">
         <v>160</v>
-      </c>
-      <c r="D37" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="E37" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="F37" s="66" t="s">
-        <v>161</v>
       </c>
       <c r="G37" s="26">
         <v>1998</v>
       </c>
       <c r="H37" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="I37" s="26" t="s">
         <v>197</v>
       </c>
-      <c r="I37" s="26" t="s">
-        <v>198</v>
-      </c>
       <c r="J37" s="24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K37" s="28">
         <v>44678</v>
@@ -3978,42 +3973,42 @@
       <c r="Q37" s="36"/>
       <c r="R37" s="36"/>
       <c r="S37" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="T37" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="T37" s="25" t="s">
+      <c r="U37" s="25" t="s">
         <v>130</v>
-      </c>
-      <c r="U37" s="25" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="38" spans="1:21" ht="132" x14ac:dyDescent="0.25">
       <c r="A38" s="61" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B38" s="5">
         <f t="shared" si="2"/>
         <v>448</v>
       </c>
       <c r="C38" s="67" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D38" s="61"/>
       <c r="E38" s="63"/>
       <c r="F38" s="61" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G38" s="68">
         <v>1974</v>
       </c>
       <c r="H38" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="I38" s="68" t="s">
         <v>202</v>
       </c>
-      <c r="I38" s="68" t="s">
-        <v>203</v>
-      </c>
       <c r="J38" s="61" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K38" s="69">
         <v>44679</v>
@@ -4028,18 +4023,18 @@
       <c r="Q38" s="21"/>
       <c r="R38" s="21"/>
       <c r="S38" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="T38" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="T38" s="25" t="s">
+      <c r="U38" s="25" t="s">
         <v>67</v>
-      </c>
-      <c r="U38" s="25" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="39" spans="1:21" ht="132" x14ac:dyDescent="0.25">
       <c r="A39" s="70" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B39" s="5">
         <f t="shared" si="2"/>
@@ -4049,19 +4044,19 @@
       <c r="D39" s="61"/>
       <c r="E39" s="63"/>
       <c r="F39" s="71" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G39" s="68">
         <v>1991</v>
       </c>
       <c r="H39" s="54" t="s">
+        <v>205</v>
+      </c>
+      <c r="I39" s="68" t="s">
         <v>206</v>
       </c>
-      <c r="I39" s="68" t="s">
-        <v>207</v>
-      </c>
       <c r="J39" s="61" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K39" s="28">
         <v>44679</v>
@@ -4076,46 +4071,46 @@
       <c r="Q39" s="21"/>
       <c r="R39" s="21"/>
       <c r="S39" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="T39" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="T39" s="25" t="s">
-        <v>75</v>
-      </c>
       <c r="U39" s="25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="40" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A40" s="61" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B40" s="5">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="C40" s="67" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D40" s="61" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E40" s="63" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F40" s="61" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G40" s="68">
         <v>1993</v>
       </c>
       <c r="H40" s="54" t="s">
+        <v>209</v>
+      </c>
+      <c r="I40" s="68" t="s">
         <v>210</v>
       </c>
-      <c r="I40" s="68" t="s">
-        <v>211</v>
-      </c>
       <c r="J40" s="61" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K40" s="28">
         <v>44680</v>
@@ -4129,45 +4124,45 @@
       <c r="P40" s="33"/>
       <c r="Q40" s="21"/>
       <c r="R40" s="25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="S40" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="T40" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="T40" s="25" t="s">
+      <c r="U40" s="25" t="s">
         <v>81</v>
-      </c>
-      <c r="U40" s="25" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="41" spans="1:21" ht="132" x14ac:dyDescent="0.25">
       <c r="A41" s="61" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B41" s="5">
         <f t="shared" si="2"/>
         <v>454</v>
       </c>
       <c r="C41" s="67" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D41" s="61"/>
       <c r="E41" s="63"/>
       <c r="F41" s="22" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G41" s="68">
         <v>2021</v>
       </c>
       <c r="H41" s="54" t="s">
+        <v>214</v>
+      </c>
+      <c r="I41" s="68" t="s">
         <v>215</v>
       </c>
-      <c r="I41" s="68" t="s">
-        <v>216</v>
-      </c>
       <c r="J41" s="61" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K41" s="28">
         <v>44681</v>
@@ -4182,46 +4177,46 @@
       <c r="Q41" s="21"/>
       <c r="R41" s="21"/>
       <c r="S41" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="T41" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="T41" s="25" t="s">
+      <c r="U41" s="25" t="s">
         <v>88</v>
-      </c>
-      <c r="U41" s="25" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="42" spans="1:21" ht="132" x14ac:dyDescent="0.25">
       <c r="A42" s="61" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B42" s="5">
         <f t="shared" si="2"/>
         <v>445</v>
       </c>
       <c r="C42" s="67" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D42" s="61" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E42" s="63" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F42" s="60" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G42" s="68">
         <v>1987</v>
       </c>
       <c r="H42" s="54" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I42" s="68" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J42" s="61" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K42" s="28">
         <v>44682</v>
@@ -4236,18 +4231,18 @@
       <c r="Q42" s="21"/>
       <c r="R42" s="21"/>
       <c r="S42" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="T42" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="T42" s="25" t="s">
+      <c r="U42" s="25" t="s">
         <v>118</v>
-      </c>
-      <c r="U42" s="25" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="43" spans="1:21" ht="158.4" x14ac:dyDescent="0.25">
       <c r="A43" s="61" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B43" s="5">
         <f t="shared" si="2"/>
@@ -4255,25 +4250,25 @@
       </c>
       <c r="C43" s="67"/>
       <c r="D43" s="61" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E43" s="63" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F43" s="61" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G43" s="68">
         <v>1995</v>
       </c>
       <c r="H43" s="22" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I43" s="68" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J43" s="61" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K43" s="28">
         <v>44683</v>
@@ -4287,38 +4282,38 @@
       <c r="P43" s="30"/>
       <c r="Q43" s="25"/>
       <c r="R43" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S43" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="T43" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="T43" s="25" t="s">
+      <c r="U43" s="25" t="s">
         <v>44</v>
-      </c>
-      <c r="U43" s="25" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="44" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A44" s="61" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B44" s="5"/>
       <c r="C44" s="67"/>
       <c r="D44" s="61"/>
       <c r="E44" s="63"/>
       <c r="F44" s="61" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G44" s="68">
         <v>1993</v>
       </c>
       <c r="H44" s="22"/>
       <c r="I44" s="68" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J44" s="61" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K44" s="28">
         <v>44683</v>
@@ -4332,38 +4327,38 @@
       <c r="P44" s="30"/>
       <c r="Q44" s="25"/>
       <c r="R44" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S44" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="T44" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="T44" s="25" t="s">
+      <c r="U44" s="25" t="s">
         <v>44</v>
-      </c>
-      <c r="U44" s="25" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A45" s="61" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B45" s="5"/>
       <c r="C45" s="67"/>
       <c r="D45" s="61"/>
       <c r="E45" s="63"/>
       <c r="F45" s="61" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G45" s="68">
         <v>1991</v>
       </c>
       <c r="H45" s="22"/>
       <c r="I45" s="68" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J45" s="61" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K45" s="28">
         <v>44683</v>
@@ -4377,38 +4372,38 @@
       <c r="P45" s="30"/>
       <c r="Q45" s="25"/>
       <c r="R45" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S45" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="T45" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="T45" s="25" t="s">
+      <c r="U45" s="25" t="s">
         <v>44</v>
-      </c>
-      <c r="U45" s="25" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A46" s="61" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B46" s="5"/>
       <c r="C46" s="67"/>
       <c r="D46" s="61"/>
       <c r="E46" s="63"/>
       <c r="F46" s="61" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G46" s="68">
         <v>1993</v>
       </c>
       <c r="H46" s="22"/>
       <c r="I46" s="68" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J46" s="61" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K46" s="28">
         <v>44683</v>
@@ -4422,21 +4417,21 @@
       <c r="P46" s="30"/>
       <c r="Q46" s="25"/>
       <c r="R46" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S46" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="T46" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="T46" s="25" t="s">
+      <c r="U46" s="25" t="s">
         <v>44</v>
-      </c>
-      <c r="U46" s="25" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:21" ht="132" x14ac:dyDescent="0.25">
       <c r="A47" s="61" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B47" s="5">
         <f t="shared" ref="B47:B55" si="3">LEN(H47)</f>
@@ -4444,25 +4439,25 @@
       </c>
       <c r="C47" s="67"/>
       <c r="D47" s="61" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E47" s="63" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F47" s="22" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G47" s="68">
         <v>1992</v>
       </c>
       <c r="H47" s="54" t="s">
+        <v>231</v>
+      </c>
+      <c r="I47" s="68" t="s">
         <v>232</v>
       </c>
-      <c r="I47" s="68" t="s">
-        <v>233</v>
-      </c>
       <c r="J47" s="61" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K47" s="69">
         <v>44684</v>
@@ -4477,18 +4472,18 @@
       <c r="Q47" s="36"/>
       <c r="R47" s="36"/>
       <c r="S47" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="T47" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="T47" s="25" t="s">
+      <c r="U47" s="25" t="s">
         <v>60</v>
-      </c>
-      <c r="U47" s="25" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:21" ht="132" x14ac:dyDescent="0.25">
       <c r="A48" s="61" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B48" s="5">
         <f t="shared" si="3"/>
@@ -4496,25 +4491,25 @@
       </c>
       <c r="C48" s="67"/>
       <c r="D48" s="61" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E48" s="63" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F48" s="61" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G48" s="68">
         <v>1971</v>
       </c>
       <c r="H48" s="54" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I48" s="68" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J48" s="61" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K48" s="28">
         <v>44685</v>
@@ -4529,18 +4524,18 @@
       <c r="Q48" s="21"/>
       <c r="R48" s="21"/>
       <c r="S48" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="T48" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="T48" s="25" t="s">
+      <c r="U48" s="25" t="s">
         <v>130</v>
-      </c>
-      <c r="U48" s="25" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="49" spans="1:21" ht="132" x14ac:dyDescent="0.25">
       <c r="A49" s="61" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B49" s="5">
         <f t="shared" si="3"/>
@@ -4548,25 +4543,25 @@
       </c>
       <c r="C49" s="67"/>
       <c r="D49" s="61" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E49" s="63" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F49" s="61" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G49" s="68">
         <v>1982</v>
       </c>
       <c r="H49" s="54" t="s">
+        <v>238</v>
+      </c>
+      <c r="I49" s="68" t="s">
         <v>239</v>
       </c>
-      <c r="I49" s="68" t="s">
-        <v>240</v>
-      </c>
       <c r="J49" s="61" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K49" s="28">
         <v>44686</v>
@@ -4581,42 +4576,42 @@
       <c r="Q49" s="36"/>
       <c r="R49" s="36"/>
       <c r="S49" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="T49" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="T49" s="25" t="s">
+      <c r="U49" s="25" t="s">
         <v>67</v>
-      </c>
-      <c r="U49" s="25" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="50" spans="1:21" ht="132" x14ac:dyDescent="0.25">
       <c r="A50" s="61" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B50" s="5">
         <f t="shared" si="3"/>
         <v>466</v>
       </c>
       <c r="C50" s="63" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D50" s="61"/>
       <c r="E50" s="63"/>
       <c r="F50" s="61" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G50" s="68">
         <v>2013</v>
       </c>
       <c r="H50" s="72" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I50" s="68" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J50" s="61" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K50" s="28">
         <v>44686</v>
@@ -4631,18 +4626,18 @@
       <c r="Q50" s="21"/>
       <c r="R50" s="21"/>
       <c r="S50" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="T50" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="T50" s="25" t="s">
-        <v>75</v>
-      </c>
       <c r="U50" s="25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="51" spans="1:21" ht="132" x14ac:dyDescent="0.25">
       <c r="A51" s="61" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B51" s="5">
         <f t="shared" si="3"/>
@@ -4650,25 +4645,25 @@
       </c>
       <c r="C51" s="63"/>
       <c r="D51" s="61" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E51" s="63" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F51" s="22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G51" s="68">
         <v>1988</v>
       </c>
       <c r="H51" s="54" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I51" s="68" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J51" s="71" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K51" s="28">
         <v>44687</v>
@@ -4683,46 +4678,46 @@
       <c r="Q51" s="21"/>
       <c r="R51" s="21"/>
       <c r="S51" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="T51" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="T51" s="25" t="s">
+      <c r="U51" s="25" t="s">
         <v>81</v>
-      </c>
-      <c r="U51" s="25" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="52" spans="1:21" ht="132" x14ac:dyDescent="0.25">
       <c r="A52" s="73" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B52" s="5">
         <f t="shared" si="3"/>
         <v>454</v>
       </c>
       <c r="C52" s="23" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D52" s="32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E52" s="25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F52" s="60" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G52" s="26">
         <v>1989</v>
       </c>
       <c r="H52" s="22" t="s">
+        <v>247</v>
+      </c>
+      <c r="I52" s="26" t="s">
         <v>248</v>
       </c>
-      <c r="I52" s="26" t="s">
-        <v>249</v>
-      </c>
       <c r="J52" s="24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K52" s="69">
         <v>44688</v>
@@ -4736,49 +4731,49 @@
       <c r="P52" s="30"/>
       <c r="Q52" s="21"/>
       <c r="R52" s="25" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="S52" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="T52" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="T52" s="25" t="s">
+      <c r="U52" s="25" t="s">
         <v>118</v>
-      </c>
-      <c r="U52" s="25" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="53" spans="1:21" ht="132" x14ac:dyDescent="0.25">
       <c r="A53" s="61" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B53" s="5">
         <f t="shared" si="3"/>
         <v>444</v>
       </c>
       <c r="C53" s="67" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D53" s="61" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E53" s="63" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F53" s="61" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G53" s="68">
         <v>2021</v>
       </c>
       <c r="H53" s="54" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I53" s="68" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J53" s="61" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K53" s="28">
         <v>44688</v>
@@ -4793,46 +4788,46 @@
       <c r="Q53" s="21"/>
       <c r="R53" s="21"/>
       <c r="S53" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="T53" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="T53" s="25" t="s">
+      <c r="U53" s="25" t="s">
         <v>88</v>
-      </c>
-      <c r="U53" s="25" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="54" spans="1:21" ht="132" x14ac:dyDescent="0.25">
       <c r="A54" s="61" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B54" s="5">
         <f t="shared" si="3"/>
         <v>452</v>
       </c>
       <c r="C54" s="67" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D54" s="61" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E54" s="63" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F54" s="60" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G54" s="68">
         <v>2001</v>
       </c>
       <c r="H54" s="22" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I54" s="68" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J54" s="61" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K54" s="28">
         <v>44689</v>
@@ -4847,18 +4842,18 @@
       <c r="Q54" s="21"/>
       <c r="R54" s="21"/>
       <c r="S54" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="T54" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="T54" s="25" t="s">
+      <c r="U54" s="25" t="s">
         <v>118</v>
-      </c>
-      <c r="U54" s="25" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="55" spans="1:21" ht="158.4" x14ac:dyDescent="0.25">
       <c r="A55" s="61" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B55" s="5">
         <f t="shared" si="3"/>
@@ -4866,25 +4861,25 @@
       </c>
       <c r="C55" s="67"/>
       <c r="D55" s="61" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E55" s="63" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F55" s="61" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G55" s="68">
         <v>2016</v>
       </c>
       <c r="H55" s="54" t="s">
+        <v>258</v>
+      </c>
+      <c r="I55" s="68" t="s">
         <v>259</v>
       </c>
-      <c r="I55" s="68" t="s">
-        <v>260</v>
-      </c>
       <c r="J55" s="61" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K55" s="28">
         <v>44690</v>
@@ -4898,40 +4893,40 @@
       <c r="P55" s="30"/>
       <c r="Q55" s="25"/>
       <c r="R55" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S55" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="T55" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="T55" s="25" t="s">
+      <c r="U55" s="25" t="s">
         <v>44</v>
-      </c>
-      <c r="U55" s="25" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="56" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A56" s="61" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B56" s="5"/>
       <c r="C56" s="67"/>
       <c r="D56" s="61"/>
       <c r="E56" s="63"/>
       <c r="F56" s="61" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G56" s="68">
         <v>1995</v>
       </c>
       <c r="H56" s="54" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I56" s="68" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J56" s="61" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K56" s="69">
         <v>44690</v>
@@ -4945,49 +4940,49 @@
       <c r="P56" s="30"/>
       <c r="Q56" s="25"/>
       <c r="R56" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S56" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="T56" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="T56" s="25" t="s">
+      <c r="U56" s="25" t="s">
         <v>44</v>
-      </c>
-      <c r="U56" s="25" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="57" spans="1:21" ht="132" x14ac:dyDescent="0.25">
       <c r="A57" s="61" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B57" s="5">
         <f t="shared" ref="B57:B65" si="4">LEN(H57)</f>
         <v>453</v>
       </c>
       <c r="C57" s="67" t="s">
+        <v>53</v>
+      </c>
+      <c r="D57" s="61" t="s">
         <v>54</v>
       </c>
-      <c r="D57" s="61" t="s">
-        <v>55</v>
-      </c>
       <c r="E57" s="63" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F57" s="61" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G57" s="68">
         <v>1992</v>
       </c>
       <c r="H57" s="74" t="s">
+        <v>265</v>
+      </c>
+      <c r="I57" s="68" t="s">
         <v>266</v>
       </c>
-      <c r="I57" s="68" t="s">
-        <v>267</v>
-      </c>
       <c r="J57" s="61" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K57" s="28">
         <v>44691</v>
@@ -5002,18 +4997,18 @@
       <c r="Q57" s="21"/>
       <c r="R57" s="21"/>
       <c r="S57" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="T57" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="T57" s="25" t="s">
+      <c r="U57" s="25" t="s">
         <v>60</v>
-      </c>
-      <c r="U57" s="25" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="58" spans="1:21" ht="145.19999999999999" x14ac:dyDescent="0.25">
       <c r="A58" s="22" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B58" s="5">
         <f t="shared" si="4"/>
@@ -5021,25 +5016,25 @@
       </c>
       <c r="C58" s="63"/>
       <c r="D58" s="61" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E58" s="63" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F58" s="61" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G58" s="68">
         <v>1972</v>
       </c>
       <c r="H58" s="54" t="s">
+        <v>268</v>
+      </c>
+      <c r="I58" s="68" t="s">
         <v>269</v>
       </c>
-      <c r="I58" s="68" t="s">
-        <v>270</v>
-      </c>
       <c r="J58" s="61" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K58" s="28">
         <v>44692</v>
@@ -5054,44 +5049,44 @@
       <c r="Q58" s="21"/>
       <c r="R58" s="21"/>
       <c r="S58" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="T58" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="T58" s="25" t="s">
+      <c r="U58" s="25" t="s">
         <v>130</v>
-      </c>
-      <c r="U58" s="25" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="59" spans="1:21" ht="145.19999999999999" x14ac:dyDescent="0.25">
       <c r="A59" s="75" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B59" s="76">
         <f t="shared" si="4"/>
         <v>446</v>
       </c>
       <c r="C59" s="77" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D59" s="78"/>
       <c r="E59" s="75" t="s">
+        <v>271</v>
+      </c>
+      <c r="F59" s="79" t="s">
         <v>272</v>
-      </c>
-      <c r="F59" s="79" t="s">
-        <v>273</v>
       </c>
       <c r="G59" s="80">
         <v>1982</v>
       </c>
       <c r="H59" s="37" t="s">
+        <v>273</v>
+      </c>
+      <c r="I59" s="80" t="s">
         <v>274</v>
       </c>
-      <c r="I59" s="80" t="s">
-        <v>275</v>
-      </c>
       <c r="J59" s="75" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K59" s="81">
         <v>44693</v>
@@ -5105,45 +5100,45 @@
       <c r="P59" s="30"/>
       <c r="Q59" s="82"/>
       <c r="R59" s="82" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="S59" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="T59" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="T59" s="25" t="s">
+      <c r="U59" s="25" t="s">
         <v>67</v>
-      </c>
-      <c r="U59" s="25" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="60" spans="1:21" ht="145.19999999999999" x14ac:dyDescent="0.25">
       <c r="A60" s="61" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B60" s="5">
         <f t="shared" si="4"/>
         <v>487</v>
       </c>
       <c r="C60" s="63" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D60" s="61"/>
       <c r="E60" s="63"/>
       <c r="F60" s="61" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G60" s="83">
         <v>1980</v>
       </c>
       <c r="H60" s="54" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I60" s="68" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J60" s="71" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K60" s="28">
         <v>44693</v>
@@ -5158,46 +5153,46 @@
       <c r="Q60" s="21"/>
       <c r="R60" s="21"/>
       <c r="S60" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="T60" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="T60" s="25" t="s">
-        <v>75</v>
-      </c>
       <c r="U60" s="25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="61" spans="1:21" ht="132" x14ac:dyDescent="0.25">
       <c r="A61" s="61" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B61" s="5">
         <f t="shared" si="4"/>
         <v>459</v>
       </c>
       <c r="C61" s="67" t="s">
+        <v>76</v>
+      </c>
+      <c r="D61" s="61" t="s">
+        <v>54</v>
+      </c>
+      <c r="E61" s="63" t="s">
+        <v>29</v>
+      </c>
+      <c r="F61" s="61" t="s">
         <v>77</v>
-      </c>
-      <c r="D61" s="61" t="s">
-        <v>55</v>
-      </c>
-      <c r="E61" s="63" t="s">
-        <v>30</v>
-      </c>
-      <c r="F61" s="61" t="s">
-        <v>78</v>
       </c>
       <c r="G61" s="61">
         <v>1990</v>
       </c>
       <c r="H61" s="22" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I61" s="61" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J61" s="61" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K61" s="28">
         <v>44694</v>
@@ -5212,46 +5207,46 @@
       <c r="Q61" s="21"/>
       <c r="R61" s="21"/>
       <c r="S61" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="T61" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="T61" s="25" t="s">
+      <c r="U61" s="25" t="s">
         <v>81</v>
-      </c>
-      <c r="U61" s="25" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="62" spans="1:21" ht="132" x14ac:dyDescent="0.25">
       <c r="A62" s="61" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B62" s="5">
         <f t="shared" si="4"/>
         <v>446</v>
       </c>
       <c r="C62" s="67" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D62" s="61" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E62" s="63" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F62" s="61" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G62" s="61">
         <v>1943</v>
       </c>
       <c r="H62" s="74" t="s">
+        <v>283</v>
+      </c>
+      <c r="I62" s="61" t="s">
         <v>284</v>
       </c>
-      <c r="I62" s="61" t="s">
-        <v>285</v>
-      </c>
       <c r="J62" s="84" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K62" s="69">
         <v>44695</v>
@@ -5265,49 +5260,49 @@
       <c r="P62" s="30"/>
       <c r="Q62" s="25"/>
       <c r="R62" s="25" t="s">
+        <v>285</v>
+      </c>
+      <c r="S62" s="25" t="s">
         <v>286</v>
       </c>
-      <c r="S62" s="25" t="s">
+      <c r="T62" s="25" t="s">
         <v>287</v>
       </c>
-      <c r="T62" s="25" t="s">
+      <c r="U62" s="25" t="s">
         <v>288</v>
-      </c>
-      <c r="U62" s="25" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="63" spans="1:21" ht="132" x14ac:dyDescent="0.25">
       <c r="A63" s="61" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B63" s="5">
         <f t="shared" si="4"/>
         <v>457</v>
       </c>
       <c r="C63" s="67" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D63" s="61" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E63" s="63" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F63" s="61" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G63" s="61">
         <v>2021</v>
       </c>
       <c r="H63" s="74" t="s">
+        <v>290</v>
+      </c>
+      <c r="I63" s="61" t="s">
         <v>291</v>
       </c>
-      <c r="I63" s="61" t="s">
-        <v>292</v>
-      </c>
       <c r="J63" s="61" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K63" s="28">
         <v>44695</v>
@@ -5322,46 +5317,46 @@
       <c r="Q63" s="21"/>
       <c r="R63" s="21"/>
       <c r="S63" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="T63" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="T63" s="25" t="s">
+      <c r="U63" s="25" t="s">
         <v>88</v>
-      </c>
-      <c r="U63" s="25" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="64" spans="1:21" ht="132" x14ac:dyDescent="0.25">
       <c r="A64" s="61" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B64" s="5">
         <f t="shared" si="4"/>
         <v>454</v>
       </c>
       <c r="C64" s="67" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D64" s="61" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E64" s="63" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F64" s="60" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G64" s="61">
         <v>1996</v>
       </c>
       <c r="H64" s="54" t="s">
+        <v>294</v>
+      </c>
+      <c r="I64" s="61" t="s">
         <v>295</v>
       </c>
-      <c r="I64" s="61" t="s">
-        <v>296</v>
-      </c>
       <c r="J64" s="61" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K64" s="28">
         <v>44696</v>
@@ -5376,46 +5371,46 @@
       <c r="Q64" s="21"/>
       <c r="R64" s="21"/>
       <c r="S64" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="T64" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="T64" s="25" t="s">
+      <c r="U64" s="25" t="s">
         <v>118</v>
-      </c>
-      <c r="U64" s="25" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="65" spans="1:21" ht="145.19999999999999" x14ac:dyDescent="0.25">
       <c r="A65" s="61" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B65" s="5">
         <f t="shared" si="4"/>
         <v>516</v>
       </c>
       <c r="C65" s="67" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D65" s="61" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E65" s="63" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F65" s="61" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G65" s="22">
         <v>2005</v>
       </c>
       <c r="H65" s="54" t="s">
+        <v>298</v>
+      </c>
+      <c r="I65" s="68" t="s">
         <v>299</v>
       </c>
-      <c r="I65" s="68" t="s">
-        <v>300</v>
-      </c>
       <c r="J65" s="61" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K65" s="28">
         <v>44697</v>
@@ -5429,40 +5424,40 @@
       <c r="P65" s="30"/>
       <c r="Q65" s="25"/>
       <c r="R65" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S65" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="T65" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="T65" s="25" t="s">
+      <c r="U65" s="25" t="s">
         <v>44</v>
-      </c>
-      <c r="U65" s="25" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="66" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A66" s="61" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B66" s="5"/>
       <c r="C66" s="67"/>
       <c r="D66" s="61"/>
       <c r="E66" s="63"/>
       <c r="F66" s="61" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G66" s="22">
         <v>1979</v>
       </c>
       <c r="H66" s="54" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I66" s="68" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J66" s="61" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K66" s="69">
         <v>44697</v>
@@ -5476,21 +5471,21 @@
       <c r="P66" s="30"/>
       <c r="Q66" s="25"/>
       <c r="R66" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S66" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="T66" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="T66" s="25" t="s">
+      <c r="U66" s="25" t="s">
         <v>44</v>
-      </c>
-      <c r="U66" s="25" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="67" spans="1:21" ht="158.4" x14ac:dyDescent="0.25">
       <c r="A67" s="73" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B67" s="5">
         <f t="shared" ref="B67:B75" si="5">LEN(H67)</f>
@@ -5498,25 +5493,25 @@
       </c>
       <c r="C67" s="23"/>
       <c r="D67" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E67" s="25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F67" s="24" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G67" s="26">
         <v>1989</v>
       </c>
       <c r="H67" s="22" t="s">
+        <v>305</v>
+      </c>
+      <c r="I67" s="26" t="s">
         <v>306</v>
       </c>
-      <c r="I67" s="26" t="s">
-        <v>307</v>
-      </c>
       <c r="J67" s="24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K67" s="69">
         <v>44697</v>
@@ -5530,49 +5525,49 @@
       <c r="P67" s="30"/>
       <c r="Q67" s="25"/>
       <c r="R67" s="25" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="S67" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="T67" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="T67" s="25" t="s">
+      <c r="U67" s="25" t="s">
         <v>44</v>
-      </c>
-      <c r="U67" s="25" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="68" spans="1:21" ht="132" x14ac:dyDescent="0.25">
       <c r="A68" s="61" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B68" s="5">
         <f t="shared" si="5"/>
         <v>455</v>
       </c>
       <c r="C68" s="67" t="s">
+        <v>53</v>
+      </c>
+      <c r="D68" s="61" t="s">
         <v>54</v>
       </c>
-      <c r="D68" s="61" t="s">
-        <v>55</v>
-      </c>
       <c r="E68" s="63" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F68" s="61" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G68" s="68">
         <v>1992</v>
       </c>
       <c r="H68" s="54" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I68" s="68" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J68" s="61" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K68" s="28">
         <v>44698</v>
@@ -5587,46 +5582,46 @@
       <c r="Q68" s="21"/>
       <c r="R68" s="21"/>
       <c r="S68" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="T68" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="T68" s="25" t="s">
+      <c r="U68" s="25" t="s">
         <v>60</v>
-      </c>
-      <c r="U68" s="25" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="69" spans="1:21" ht="132" x14ac:dyDescent="0.25">
       <c r="A69" s="61" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B69" s="5">
         <f t="shared" si="5"/>
         <v>455</v>
       </c>
       <c r="C69" s="67" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D69" s="61" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E69" s="63" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F69" s="61" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G69" s="68">
         <v>1976</v>
       </c>
       <c r="H69" s="54" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I69" s="68" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J69" s="61" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K69" s="28">
         <v>44699</v>
@@ -5641,18 +5636,18 @@
       <c r="Q69" s="36"/>
       <c r="R69" s="36"/>
       <c r="S69" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="T69" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="T69" s="25" t="s">
+      <c r="U69" s="25" t="s">
         <v>130</v>
-      </c>
-      <c r="U69" s="25" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="70" spans="1:21" ht="132" x14ac:dyDescent="0.25">
       <c r="A70" s="61" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B70" s="5">
         <f t="shared" si="5"/>
@@ -5660,25 +5655,25 @@
       </c>
       <c r="C70" s="85"/>
       <c r="D70" s="61" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E70" s="63" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F70" s="61" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G70" s="68">
         <v>1991</v>
       </c>
       <c r="H70" s="54" t="s">
+        <v>315</v>
+      </c>
+      <c r="I70" s="68" t="s">
         <v>316</v>
       </c>
-      <c r="I70" s="68" t="s">
-        <v>317</v>
-      </c>
       <c r="J70" s="61" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K70" s="28">
         <v>44700</v>
@@ -5693,42 +5688,42 @@
       <c r="Q70" s="21"/>
       <c r="R70" s="21"/>
       <c r="S70" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="T70" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="T70" s="25" t="s">
+      <c r="U70" s="25" t="s">
         <v>67</v>
-      </c>
-      <c r="U70" s="25" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="71" spans="1:21" ht="145.19999999999999" x14ac:dyDescent="0.25">
       <c r="A71" s="61" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B71" s="5">
         <f t="shared" si="5"/>
         <v>484</v>
       </c>
       <c r="C71" s="63" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D71" s="61"/>
       <c r="E71" s="85"/>
       <c r="F71" s="61" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G71" s="68">
         <v>1980</v>
       </c>
       <c r="H71" s="54" t="s">
+        <v>319</v>
+      </c>
+      <c r="I71" s="63" t="s">
         <v>320</v>
       </c>
-      <c r="I71" s="63" t="s">
-        <v>321</v>
-      </c>
       <c r="J71" s="61" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K71" s="69">
         <v>44700</v>
@@ -5743,46 +5738,46 @@
       <c r="Q71" s="21"/>
       <c r="R71" s="21"/>
       <c r="S71" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="T71" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="T71" s="25" t="s">
-        <v>75</v>
-      </c>
       <c r="U71" s="25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="72" spans="1:21" ht="132" x14ac:dyDescent="0.25">
       <c r="A72" s="61" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B72" s="5">
         <f t="shared" si="5"/>
         <v>452</v>
       </c>
       <c r="C72" s="63" t="s">
+        <v>76</v>
+      </c>
+      <c r="D72" s="61" t="s">
+        <v>54</v>
+      </c>
+      <c r="E72" s="63" t="s">
+        <v>29</v>
+      </c>
+      <c r="F72" s="61" t="s">
         <v>77</v>
-      </c>
-      <c r="D72" s="61" t="s">
-        <v>55</v>
-      </c>
-      <c r="E72" s="63" t="s">
-        <v>30</v>
-      </c>
-      <c r="F72" s="61" t="s">
-        <v>78</v>
       </c>
       <c r="G72" s="68">
         <v>1994</v>
       </c>
       <c r="H72" s="54" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I72" s="63" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J72" s="61" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K72" s="69">
         <v>44701</v>
@@ -5797,42 +5792,42 @@
       <c r="Q72" s="21"/>
       <c r="R72" s="21"/>
       <c r="S72" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="T72" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="T72" s="25" t="s">
+      <c r="U72" s="25" t="s">
         <v>81</v>
-      </c>
-      <c r="U72" s="25" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="73" spans="1:21" ht="145.19999999999999" x14ac:dyDescent="0.25">
       <c r="A73" s="61" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B73" s="86">
         <f t="shared" si="5"/>
         <v>456</v>
       </c>
       <c r="C73" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D73" s="61"/>
       <c r="E73" s="63"/>
       <c r="F73" s="61" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G73" s="68">
         <v>1977</v>
       </c>
       <c r="H73" s="54" t="s">
+        <v>325</v>
+      </c>
+      <c r="I73" s="63" t="s">
         <v>326</v>
       </c>
-      <c r="I73" s="63" t="s">
-        <v>327</v>
-      </c>
       <c r="J73" s="61" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K73" s="69">
         <v>44701</v>
@@ -5846,45 +5841,45 @@
       <c r="P73" s="30"/>
       <c r="Q73" s="21"/>
       <c r="R73" s="25" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="S73" s="25" t="s">
+        <v>286</v>
+      </c>
+      <c r="T73" s="25" t="s">
         <v>287</v>
       </c>
-      <c r="T73" s="25" t="s">
+      <c r="U73" s="25" t="s">
         <v>288</v>
-      </c>
-      <c r="U73" s="25" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="74" spans="1:21" ht="145.19999999999999" x14ac:dyDescent="0.25">
       <c r="A74" s="61" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B74" s="5">
         <f t="shared" si="5"/>
         <v>467</v>
       </c>
       <c r="C74" s="63" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D74" s="61"/>
       <c r="E74" s="85"/>
       <c r="F74" s="61" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G74" s="68">
         <v>1997</v>
       </c>
       <c r="H74" s="54" t="s">
+        <v>330</v>
+      </c>
+      <c r="I74" s="63" t="s">
         <v>331</v>
       </c>
-      <c r="I74" s="63" t="s">
-        <v>332</v>
-      </c>
       <c r="J74" s="61" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K74" s="87">
         <v>44703</v>
@@ -5899,46 +5894,46 @@
       <c r="Q74" s="21"/>
       <c r="R74" s="21"/>
       <c r="S74" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="T74" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="T74" s="25" t="s">
+      <c r="U74" s="25" t="s">
         <v>118</v>
-      </c>
-      <c r="U74" s="25" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="75" spans="1:21" ht="158.4" x14ac:dyDescent="0.25">
       <c r="A75" s="61" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B75" s="5">
         <f t="shared" si="5"/>
         <v>520</v>
       </c>
       <c r="C75" s="63" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D75" s="61" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E75" s="63" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F75" s="61" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G75" s="68">
         <v>1970</v>
       </c>
       <c r="H75" s="54" t="s">
+        <v>334</v>
+      </c>
+      <c r="I75" s="63" t="s">
         <v>335</v>
       </c>
-      <c r="I75" s="63" t="s">
-        <v>336</v>
-      </c>
       <c r="J75" s="61" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K75" s="28">
         <v>44704</v>
@@ -5952,40 +5947,40 @@
       <c r="P75" s="30"/>
       <c r="Q75" s="25"/>
       <c r="R75" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S75" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="T75" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="T75" s="25" t="s">
+      <c r="U75" s="25" t="s">
         <v>44</v>
-      </c>
-      <c r="U75" s="25" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="76" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A76" s="61" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B76" s="5"/>
       <c r="C76" s="63"/>
       <c r="D76" s="61"/>
       <c r="E76" s="63"/>
       <c r="F76" s="61" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G76" s="68">
         <v>1985</v>
       </c>
       <c r="H76" s="54" t="s">
+        <v>189</v>
+      </c>
+      <c r="I76" s="63" t="s">
         <v>190</v>
       </c>
-      <c r="I76" s="63" t="s">
-        <v>191</v>
-      </c>
       <c r="J76" s="61" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K76" s="69">
         <v>44704</v>
@@ -5999,49 +5994,49 @@
       <c r="P76" s="30"/>
       <c r="Q76" s="25"/>
       <c r="R76" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S76" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="T76" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="T76" s="25" t="s">
+      <c r="U76" s="25" t="s">
         <v>44</v>
-      </c>
-      <c r="U76" s="25" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="77" spans="1:21" ht="132" x14ac:dyDescent="0.25">
       <c r="A77" s="61" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B77" s="5">
         <f t="shared" ref="B77:B84" si="6">LEN(H77)</f>
         <v>449</v>
       </c>
       <c r="C77" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="D77" s="63" t="s">
         <v>54</v>
       </c>
-      <c r="D77" s="63" t="s">
-        <v>55</v>
-      </c>
       <c r="E77" s="63" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F77" s="61" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G77" s="68">
         <v>1992</v>
       </c>
       <c r="H77" s="54" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I77" s="63" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J77" s="61" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K77" s="28">
         <v>44705</v>
@@ -6056,46 +6051,46 @@
       <c r="Q77" s="21"/>
       <c r="R77" s="21"/>
       <c r="S77" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="T77" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="T77" s="25" t="s">
+      <c r="U77" s="25" t="s">
         <v>60</v>
-      </c>
-      <c r="U77" s="25" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="78" spans="1:21" ht="118.8" x14ac:dyDescent="0.25">
       <c r="A78" s="61" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B78" s="5">
         <f t="shared" si="6"/>
         <v>443</v>
       </c>
       <c r="C78" s="63" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D78" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E78" s="63" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F78" s="61" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G78" s="68">
         <v>1987</v>
       </c>
       <c r="H78" s="54" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="I78" s="63" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="J78" s="61" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K78" s="28">
         <v>44706</v>
@@ -6110,18 +6105,18 @@
       <c r="Q78" s="21"/>
       <c r="R78" s="21"/>
       <c r="S78" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="T78" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="T78" s="25" t="s">
+      <c r="U78" s="25" t="s">
         <v>130</v>
-      </c>
-      <c r="U78" s="25" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="79" spans="1:21" ht="132" x14ac:dyDescent="0.25">
       <c r="A79" s="61" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B79" s="5">
         <f t="shared" si="6"/>
@@ -6129,25 +6124,25 @@
       </c>
       <c r="C79" s="85"/>
       <c r="D79" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E79" s="63" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F79" s="61" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G79" s="68">
         <v>2008</v>
       </c>
       <c r="H79" s="54" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I79" s="63" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J79" s="61" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K79" s="28">
         <v>44707</v>
@@ -6162,46 +6157,46 @@
       <c r="Q79" s="21"/>
       <c r="R79" s="21"/>
       <c r="S79" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="T79" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="T79" s="25" t="s">
+      <c r="U79" s="25" t="s">
         <v>67</v>
-      </c>
-      <c r="U79" s="25" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="80" spans="1:21" ht="158.4" x14ac:dyDescent="0.25">
       <c r="A80" s="61" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B80" s="5">
         <f t="shared" si="6"/>
         <v>560</v>
       </c>
       <c r="C80" s="63" t="s">
+        <v>347</v>
+      </c>
+      <c r="D80" s="63" t="s">
+        <v>54</v>
+      </c>
+      <c r="E80" s="63" t="s">
+        <v>29</v>
+      </c>
+      <c r="F80" s="61" t="s">
         <v>348</v>
-      </c>
-      <c r="D80" s="63" t="s">
-        <v>55</v>
-      </c>
-      <c r="E80" s="63" t="s">
-        <v>30</v>
-      </c>
-      <c r="F80" s="61" t="s">
-        <v>349</v>
       </c>
       <c r="G80" s="68">
         <v>1970</v>
       </c>
       <c r="H80" s="22" t="s">
+        <v>349</v>
+      </c>
+      <c r="I80" s="63" t="s">
         <v>350</v>
       </c>
-      <c r="I80" s="63" t="s">
-        <v>351</v>
-      </c>
       <c r="J80" s="61" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K80" s="28">
         <v>44707</v>
@@ -6216,46 +6211,46 @@
       <c r="Q80" s="21"/>
       <c r="R80" s="21"/>
       <c r="S80" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="T80" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="T80" s="25" t="s">
-        <v>75</v>
-      </c>
       <c r="U80" s="25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="81" spans="1:21" ht="132" x14ac:dyDescent="0.25">
       <c r="A81" s="61" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B81" s="5">
         <f t="shared" si="6"/>
         <v>459</v>
       </c>
       <c r="C81" s="63" t="s">
+        <v>76</v>
+      </c>
+      <c r="D81" s="63" t="s">
+        <v>54</v>
+      </c>
+      <c r="E81" s="63" t="s">
+        <v>29</v>
+      </c>
+      <c r="F81" s="61" t="s">
         <v>77</v>
-      </c>
-      <c r="D81" s="63" t="s">
-        <v>55</v>
-      </c>
-      <c r="E81" s="63" t="s">
-        <v>30</v>
-      </c>
-      <c r="F81" s="61" t="s">
-        <v>78</v>
       </c>
       <c r="G81" s="68">
         <v>1995</v>
       </c>
       <c r="H81" s="54" t="s">
+        <v>352</v>
+      </c>
+      <c r="I81" s="63" t="s">
         <v>353</v>
       </c>
-      <c r="I81" s="63" t="s">
-        <v>354</v>
-      </c>
       <c r="J81" s="61" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K81" s="28">
         <v>44708</v>
@@ -6270,46 +6265,46 @@
       <c r="Q81" s="21"/>
       <c r="R81" s="21"/>
       <c r="S81" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="T81" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="T81" s="25" t="s">
+      <c r="U81" s="25" t="s">
         <v>81</v>
-      </c>
-      <c r="U81" s="25" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="82" spans="1:21" ht="145.19999999999999" x14ac:dyDescent="0.25">
       <c r="A82" s="61" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B82" s="5">
         <f t="shared" si="6"/>
         <v>495</v>
       </c>
       <c r="C82" s="63" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D82" s="63" t="s">
+        <v>355</v>
+      </c>
+      <c r="E82" s="63" t="s">
+        <v>29</v>
+      </c>
+      <c r="F82" s="61" t="s">
         <v>356</v>
-      </c>
-      <c r="E82" s="63" t="s">
-        <v>30</v>
-      </c>
-      <c r="F82" s="61" t="s">
-        <v>357</v>
       </c>
       <c r="G82" s="68">
         <v>2016</v>
       </c>
       <c r="H82" s="54" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I82" s="63" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J82" s="61" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K82" s="69">
         <v>44709</v>
@@ -6324,42 +6319,42 @@
       <c r="Q82" s="21"/>
       <c r="R82" s="21"/>
       <c r="S82" s="25" t="s">
+        <v>286</v>
+      </c>
+      <c r="T82" s="25" t="s">
         <v>287</v>
       </c>
-      <c r="T82" s="25" t="s">
+      <c r="U82" s="25" t="s">
         <v>288</v>
-      </c>
-      <c r="U82" s="25" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="83" spans="1:21" ht="132" x14ac:dyDescent="0.25">
       <c r="A83" s="61" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B83" s="5">
         <f t="shared" si="6"/>
         <v>437</v>
       </c>
       <c r="C83" s="63" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D83" s="85"/>
       <c r="E83" s="85"/>
       <c r="F83" s="61" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G83" s="68">
         <v>2022</v>
       </c>
       <c r="H83" s="54" t="s">
+        <v>360</v>
+      </c>
+      <c r="I83" s="63" t="s">
         <v>361</v>
       </c>
-      <c r="I83" s="63" t="s">
-        <v>362</v>
-      </c>
       <c r="J83" s="61" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K83" s="28">
         <v>44709</v>
@@ -6373,49 +6368,49 @@
       <c r="P83" s="30"/>
       <c r="Q83" s="21"/>
       <c r="R83" s="25" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="S83" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="T83" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="T83" s="25" t="s">
+      <c r="U83" s="25" t="s">
         <v>88</v>
-      </c>
-      <c r="U83" s="25" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="84" spans="1:21" ht="132" x14ac:dyDescent="0.25">
       <c r="A84" s="61" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B84" s="5">
         <f t="shared" si="6"/>
         <v>460</v>
       </c>
       <c r="C84" s="63" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D84" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E84" s="63" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F84" s="61" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G84" s="68">
         <v>2007</v>
       </c>
       <c r="H84" s="54" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I84" s="63" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J84" s="61" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K84" s="28">
         <v>44710</v>
@@ -6430,13 +6425,13 @@
       <c r="Q84" s="21"/>
       <c r="R84" s="21"/>
       <c r="S84" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="T84" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="T84" s="25" t="s">
+      <c r="U84" s="25" t="s">
         <v>118</v>
-      </c>
-      <c r="U84" s="25" t="s">
-        <v>119</v>
       </c>
     </row>
   </sheetData>
